--- a/tabla_otros.xlsx
+++ b/tabla_otros.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\COMANDO COVID\6. TABLERO DE MANDO\repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61148099-B21C-DB4E-964B-2693E4EB3D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="28035" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Documento</t>
   </si>
@@ -39,12 +38,6 @@
     <t>Institucion</t>
   </si>
   <si>
-    <t>Oficio 55</t>
-  </si>
-  <si>
-    <t>asunto2</t>
-  </si>
-  <si>
     <t>http://rstudio.com</t>
   </si>
   <si>
@@ -54,22 +47,13 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Los asuntos son generalmente mas largos y podran ocupar mas espacio de lo normal, tal como este asunto que esta ocupando mucho mas espacio. Posiblemente incluso mas</t>
-  </si>
-  <si>
-    <t>Gobierno Regional Cusco</t>
-  </si>
-  <si>
-    <t>Presidencia del Consejo de Ministros</t>
-  </si>
-  <si>
-    <t>Carta 99-2020-154-GS2</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,7 +98,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,19 +410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F04AFD1-B9E6-9F4A-B71A-83E5AF326453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,50 +433,50 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44177</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44183</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{617C77AC-DF8F-2746-989C-48BE6103D7AE}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EBEB3D9F-12F0-C94B-80AC-D4DF0338D56B}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla_otros.xlsx
+++ b/tabla_otros.xlsx
@@ -24,30 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Documento</t>
   </si>
   <si>
-    <t>Descarga</t>
-  </si>
-  <si>
     <t>Asunto</t>
   </si>
   <si>
     <t>Institucion</t>
   </si>
   <si>
-    <t>http://rstudio.com</t>
-  </si>
-  <si>
-    <t>https://github.com/branmora/sg-equality-evidence-finder/raw/master/files/doc1.pdf</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Informe de Gestión - Expresidencia del Comando COVID</t>
+  </si>
+  <si>
+    <t>Gerencia Regional de Desarrollo Social</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Zj0dXjbFdjqFRkbd-FpCeFWciB7OnJmQ?usp=sharing</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>Actas del Comando COVID</t>
+  </si>
+  <si>
+    <t>Comando de Operaciones COVID-19</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1w0AFrb9xvNNIJ6ryQVsTog3xFRgqga30/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -413,13 +425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -427,56 +442,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla_otros.xlsx
+++ b/tabla_otros.xlsx
@@ -50,9 +50,6 @@
     <t>https://drive.google.com/drive/folders/1Zj0dXjbFdjqFRkbd-FpCeFWciB7OnJmQ?usp=sharing</t>
   </si>
   <si>
-    <t>Enlace</t>
-  </si>
-  <si>
     <t>Actas del Comando COVID</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1w0AFrb9xvNNIJ6ryQVsTog3xFRgqga30/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Descarga</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,17 +471,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
